--- a/Daily/ACF - PACF/First Difference/sony residuals - values.xlsx
+++ b/Daily/ACF - PACF/First Difference/sony residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.794005050750941E-07</v>
+        <v>0.001862512587783106</v>
       </c>
       <c r="C3">
-        <v>3.795473887481435E-07</v>
+        <v>0.001863233653438462</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004641819866323583</v>
+        <v>0.003370543472275282</v>
       </c>
       <c r="C4">
-        <v>0.004645415388927161</v>
+        <v>0.003369694331513174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.04860018164896342</v>
+        <v>-0.00247354798139243</v>
       </c>
       <c r="C5">
-        <v>-0.04865772513896088</v>
+        <v>-0.002489002312634164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01669285178534741</v>
+        <v>-0.01960024286863723</v>
       </c>
       <c r="C6">
-        <v>-0.01676934085071662</v>
+        <v>-0.01963316868017739</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001033870695983387</v>
+        <v>0.02098804624912511</v>
       </c>
       <c r="C7">
-        <v>0.001485831107190447</v>
+        <v>0.0211263561438343</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.00426638965927753</v>
+        <v>0.009778150436182038</v>
       </c>
       <c r="C8">
-        <v>0.002072835390788264</v>
+        <v>0.009851683444764477</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01512453470675101</v>
+        <v>-0.01004209696814035</v>
       </c>
       <c r="C9">
-        <v>0.01356418871625393</v>
+        <v>-0.01036398507938554</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.02489599574662824</v>
+        <v>-0.01891205490625535</v>
       </c>
       <c r="C10">
-        <v>-0.02521689783923998</v>
+        <v>-0.01930016998162814</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04262785408550081</v>
+        <v>0.01820307169505699</v>
       </c>
       <c r="C11">
-        <v>0.04311864658524385</v>
+        <v>0.01932695905504479</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.008817592061260485</v>
+        <v>-0.01316640837823551</v>
       </c>
       <c r="C12">
-        <v>-0.007177623555415173</v>
+        <v>-0.0132779942950917</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.008852023177958716</v>
+        <v>-0.002286497239213267</v>
       </c>
       <c r="C13">
-        <v>-0.0112880864827106</v>
+        <v>-0.003308793666019064</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02240599032432365</v>
+        <v>0.01500358688640084</v>
       </c>
       <c r="C14">
-        <v>0.02603196750937021</v>
+        <v>0.01488951571013024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.03108144084418608</v>
+        <v>-0.01154667151857458</v>
       </c>
       <c r="C15">
-        <v>-0.03081985029156504</v>
+        <v>-0.009976880227642062</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.0165868710782926</v>
+        <v>-0.01589907116417473</v>
       </c>
       <c r="C16">
-        <v>-0.01823774593521563</v>
+        <v>-0.01717581159506206</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0126328030494769</v>
+        <v>-0.009744731152961292</v>
       </c>
       <c r="C17">
-        <v>-0.01002200716019482</v>
+        <v>-0.009870605460074216</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.01424698032725117</v>
+        <v>-0.007893742446862388</v>
       </c>
       <c r="C18">
-        <v>-0.01833965534749304</v>
+        <v>-0.006824915969448743</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01960465178639711</v>
+        <v>0.005685281548086037</v>
       </c>
       <c r="C19">
-        <v>0.01982525477700346</v>
+        <v>0.005172451535102715</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.001814296072769527</v>
+        <v>0.0002179077520259359</v>
       </c>
       <c r="C20">
-        <v>-0.005645913101074953</v>
+        <v>-0.001207884562635948</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.0002574025543170656</v>
+        <v>-0.007969014691859205</v>
       </c>
       <c r="C21">
-        <v>-0.002556201939121066</v>
+        <v>-0.006897208506918728</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03272201384497257</v>
+        <v>-0.03757418440964427</v>
       </c>
       <c r="C22">
-        <v>-0.02858993864613432</v>
+        <v>-0.03718681851820354</v>
       </c>
     </row>
   </sheetData>
